--- a/schedules/schedule_subjects-grouped_overview.xlsx
+++ b/schedules/schedule_subjects-grouped_overview.xlsx
@@ -1154,10 +1154,8 @@
         <v>4</v>
       </c>
       <c r="AK5" s="1" t="n"/>
-      <c r="AL5" s="1" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
+      <c r="AL5" s="1" t="n">
+        <v>210</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
@@ -1278,10 +1276,8 @@
         <v>8</v>
       </c>
       <c r="AK6" s="1" t="n"/>
-      <c r="AL6" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="AL6" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="AM6" t="n">
         <v>4</v>
@@ -1724,10 +1720,8 @@
         <v>5</v>
       </c>
       <c r="AK11" s="1" t="n"/>
-      <c r="AL11" s="1" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
+      <c r="AL11" s="1" t="n">
+        <v>115</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
@@ -1774,10 +1768,8 @@
         <v>3</v>
       </c>
       <c r="AK12" s="1" t="n"/>
-      <c r="AL12" s="1" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
+      <c r="AL12" s="1" t="n">
+        <v>102</v>
       </c>
       <c r="AM12" t="n">
         <v>6</v>
@@ -2506,10 +2498,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AL2" s="1" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
+      <c r="AL2" s="1" t="n">
+        <v>209</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -8356,10 +8346,8 @@
         <v>2</v>
       </c>
       <c r="AK3" s="1" t="n"/>
-      <c r="AL3" s="1" t="inlineStr">
-        <is>
-          <t>202</t>
-        </is>
+      <c r="AL3" s="1" t="n">
+        <v>202</v>
       </c>
       <c r="AM3" t="n">
         <v>7</v>
@@ -8756,10 +8744,8 @@
         <v>3</v>
       </c>
       <c r="AK9" s="1" t="n"/>
-      <c r="AL9" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="AL9" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
@@ -11863,10 +11849,8 @@
         <v>2</v>
       </c>
       <c r="AK8" s="1" t="n"/>
-      <c r="AL8" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="AL8" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="AM8" t="n">
         <v>1</v>
@@ -15268,10 +15252,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AL2" s="1" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
+      <c r="AL2" s="1" t="n">
+        <v>110</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -18663,10 +18645,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AL2" s="1" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
+      <c r="AL2" s="1" t="n">
+        <v>110</v>
       </c>
       <c r="AM2" t="n">
         <v>1</v>
@@ -25582,10 +25562,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AL2" s="1" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
+      <c r="AL2" s="1" t="n">
+        <v>101</v>
       </c>
       <c r="AM2" t="n">
         <v>1</v>
@@ -29109,10 +29087,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AL2" s="1" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
+      <c r="AL2" s="1" t="n">
+        <v>101</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -35088,10 +35064,8 @@
         <v>3</v>
       </c>
       <c r="AK4" s="1" t="n"/>
-      <c r="AL4" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="AL4" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -41657,10 +41631,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AL2" s="1" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
+      <c r="AL2" s="1" t="n">
+        <v>209</v>
       </c>
       <c r="AM2" t="n">
         <v>3</v>
